--- a/apiFrame/data/delivertest.xlsx
+++ b/apiFrame/data/delivertest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>测试用例ID</t>
   </si>
@@ -54,6 +54,9 @@
     <t>状态码</t>
   </si>
   <si>
+    <t>后置参数</t>
+  </si>
+  <si>
     <t>deliver_001</t>
   </si>
   <si>
@@ -63,7 +66,7 @@
     <t>检查是否已发起聊天</t>
   </si>
   <si>
-    <t>http://192.168.18.167:201/interview/enterprise/web/chat/msgHistory</t>
+    <t>http://192.168.18.167:2002/interview/enterprise/web/chat/msgHistory</t>
   </si>
   <si>
     <t>login</t>
@@ -75,7 +78,7 @@
     <t>json</t>
   </si>
   <si>
-    <t>{"hrId": "1451127362959003648", "jobId": "1451147095980724224", "userId": "1567700481201115136"}</t>
+    <t>{"hrId": "{hr_id}", "jobId": "{job_id}", "userId": "{user_id}"}</t>
   </si>
   <si>
     <t>登录成功</t>
@@ -84,7 +87,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>{"Authorization":"{token}","Accept":"application/json, text/plain, */*","accept-encoding":"gzip, deflate, br","accept-language":"zh-CN,zh;q=0.9"}</t>
+    <t>{"Authorization":"{token}","Accept":"application/json, text/plain, */*","accept-encoding":"gzip, deflate, br","accept-language":"zh-CN,zh;q=0.9","Content-Type":"application/json"}</t>
   </si>
   <si>
     <t>deliver_002</t>
@@ -96,33 +99,30 @@
     <t>http://192.168.18.167:201/interview/seeker/web/delivery/userStartChat</t>
   </si>
   <si>
-    <t>{"hrId":"{hr_id_1}","jobId":"{job_id_1}","companyId":"{company_id_1}","route":0,"routeId":"","tag":1}</t>
+    <t>{"hrId":"{hr_id}","jobId":"{job_id}","companyId":"{company_id}","route":0,"routeId":"","tag":1}</t>
   </si>
   <si>
     <t>success</t>
   </si>
   <si>
+    <t>deliver_003</t>
+  </si>
+  <si>
+    <t>检查是否有未接收的投递</t>
+  </si>
+  <si>
+    <t>http://192.168.18.167:201/interview/seeker/web/delivery/checkDelivery</t>
+  </si>
+  <si>
+    <t>{"jobId":"{job_id}","userId":"{user_id}"}</t>
+  </si>
+  <si>
+    <t>autotester-05</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>{"Authorization":"{token}"}</t>
-  </si>
-  <si>
-    <t>deliver_003</t>
-  </si>
-  <si>
-    <t>检查是否有未接收的投递</t>
-  </si>
-  <si>
-    <t>http://192.168.18.167:201/interview/seeker/web/delivery/checkDelivery</t>
-  </si>
-  <si>
-    <t>{"jobId":"{job_id_1}","userId":"{user}"}</t>
-  </si>
-  <si>
-    <t>autotester-05</t>
-  </si>
-  <si>
     <t>deliver_004</t>
   </si>
   <si>
@@ -132,7 +132,7 @@
     <t>http://192.168.18.167:201/interview/seeker/web/delivery/resumeDelivery</t>
   </si>
   <si>
-    <t>{"id":"{zxjl_id}","jobId":"${job_id}","inviteId":"","companyId":"${company_id}","deliverType":0,"route":"0","routeId":""}</t>
+    <t>{"id":"{zxjl_id}","jobId":"${job_id}","inviteId":"","companyId":"{company_id}","deliverType":0,"route":"0","routeId":""}</t>
   </si>
   <si>
     <t>deliver_005</t>
@@ -1134,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1145,16 +1145,17 @@
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="51.625" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="81.375" customWidth="1"/>
-    <col min="9" max="9" width="24.75" customWidth="1"/>
-    <col min="11" max="11" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="76.5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="126" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1190,128 +1191,131 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" ht="54" customHeight="1" spans="1:12">
+    <row r="3" ht="42" customHeight="1" spans="1:12">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
       </c>
       <c r="L3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="46" customHeight="1" spans="1:12">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:12">
+    <row r="5" ht="78" customHeight="1" spans="1:12">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -1320,25 +1324,25 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <v>200</v>
@@ -1349,7 +1353,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1358,25 +1362,25 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L6">
         <v>200</v>
@@ -1384,7 +1388,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://192.168.18.167:201/interview/enterprise/web/chat/msgHistory" tooltip="http://192.168.18.167:201/interview/enterprise/web/chat/msgHistory"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://192.168.18.167:2002/interview/enterprise/web/chat/msgHistory" tooltip="http://192.168.18.167:2002/interview/enterprise/web/chat/msgHistory"/>
     <hyperlink ref="D3" r:id="rId2" display="http://192.168.18.167:201/interview/seeker/web/delivery/userStartChat" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/userStartChat"/>
     <hyperlink ref="D6" r:id="rId3" display="http://192.168.18.167:201/interview/seeker/web/chat/saveMsg" tooltip="http://192.168.18.167:201/interview/seeker/web/chat/saveMsg"/>
     <hyperlink ref="D4" r:id="rId4" display="http://192.168.18.167:201/interview/seeker/web/delivery/checkDelivery" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/checkDelivery"/>

--- a/apiFrame/data/delivertest.xlsx
+++ b/apiFrame/data/delivertest.xlsx
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1145,7 +1145,7 @@
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="51.625" customWidth="1"/>
+    <col min="4" max="4" width="113.5" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>

--- a/apiFrame/data/delivertest.xlsx
+++ b/apiFrame/data/delivertest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>测试用例ID</t>
   </si>
@@ -81,7 +81,7 @@
     <t>{"hrId": "{hr_id}", "jobId": "{job_id}", "userId": "{user_id}"}</t>
   </si>
   <si>
-    <t>登录成功</t>
+    <t>success</t>
   </si>
   <si>
     <t>y</t>
@@ -96,40 +96,31 @@
     <t>创建聊天房间</t>
   </si>
   <si>
-    <t>http://192.168.18.167:201/interview/seeker/web/delivery/userStartChat</t>
+    <t>http://192.168.18.167:2002/interview/seeker/web/delivery/userStartChat</t>
   </si>
   <si>
     <t>{"hrId":"{hr_id}","jobId":"{job_id}","companyId":"{company_id}","route":0,"routeId":"","tag":1}</t>
   </si>
   <si>
-    <t>success</t>
-  </si>
-  <si>
     <t>deliver_003</t>
   </si>
   <si>
     <t>检查是否有未接收的投递</t>
   </si>
   <si>
-    <t>http://192.168.18.167:201/interview/seeker/web/delivery/checkDelivery</t>
+    <t>http://192.168.18.167:2002/interview/seeker/web/delivery/checkDelivery</t>
   </si>
   <si>
     <t>{"jobId":"{job_id}","userId":"{user_id}"}</t>
   </si>
   <si>
-    <t>autotester-05</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>deliver_004</t>
   </si>
   <si>
     <t>投递简历</t>
   </si>
   <si>
-    <t>http://192.168.18.167:201/interview/seeker/web/delivery/resumeDelivery</t>
+    <t>http://192.168.18.167:2002/interview/seeker/web/delivery/resumeDelivery</t>
   </si>
   <si>
     <t>{"id":"{zxjl_id}","jobId":"${job_id}","inviteId":"","companyId":"{company_id}","deliverType":0,"route":"0","routeId":""}</t>
@@ -141,10 +132,10 @@
     <t>发送聊天消息</t>
   </si>
   <si>
-    <t>http://192.168.18.167:201/interview/seeker/web/chat/saveMsg</t>
-  </si>
-  <si>
-    <t>{"msgType":"deliverResume","jobId":"{job_id}","extension":"{msg_id}","roomId":"{room_id_new}","sendId":"{user}","receiveId":"{hr_id}","msgContent":"我对您的这个岗位很感兴趣，这是我的简历，请查收","sendTime":"${__time(yyyy-MM-dd HH:mm:ss,)}"}</t>
+    <t>http://192.168.18.167:2002/interview/seeker/web/chat/saveMsg</t>
+  </si>
+  <si>
+    <t>{"msgType":"deliverResume","jobId":"{job_id}","extension":"{msg_id}","roomId":"{room_id_new}","sendId":"{user}","receiveId":"{hr_id}","msgContent":"我对您的这个岗位很感兴趣，这是我的简历，请查收,脚本投递","sendTime":"{sendtime}"}</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1145,13 +1136,13 @@
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="113.5" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="72.875" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="76.5" customWidth="1"/>
+    <col min="8" max="8" width="106.625" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="126" customWidth="1"/>
+    <col min="11" max="11" width="34.125" customWidth="1"/>
     <col min="12" max="12" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1248,7 +1239,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -1260,7 +1251,7 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1274,16 +1265,16 @@
     </row>
     <row r="4" ht="46" customHeight="1" spans="1:12">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1295,13 +1286,13 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
@@ -1312,19 +1303,16 @@
     </row>
     <row r="5" ht="78" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -1333,13 +1321,13 @@
         <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
         <v>23</v>
@@ -1348,21 +1336,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" ht="123" customHeight="1" spans="1:12">
+    <row r="6" ht="63" customHeight="1" spans="1:12">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -1371,13 +1356,13 @@
         <v>19</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
         <v>23</v>
@@ -1389,10 +1374,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://192.168.18.167:2002/interview/enterprise/web/chat/msgHistory" tooltip="http://192.168.18.167:2002/interview/enterprise/web/chat/msgHistory"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://192.168.18.167:201/interview/seeker/web/delivery/userStartChat" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/userStartChat"/>
-    <hyperlink ref="D6" r:id="rId3" display="http://192.168.18.167:201/interview/seeker/web/chat/saveMsg" tooltip="http://192.168.18.167:201/interview/seeker/web/chat/saveMsg"/>
-    <hyperlink ref="D4" r:id="rId4" display="http://192.168.18.167:201/interview/seeker/web/delivery/checkDelivery" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/checkDelivery"/>
-    <hyperlink ref="D5" r:id="rId5" display="http://192.168.18.167:201/interview/seeker/web/delivery/resumeDelivery" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/resumeDelivery"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://192.168.18.167:2002/interview/seeker/web/delivery/userStartChat" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/userStartChat"/>
+    <hyperlink ref="D6" r:id="rId3" display="http://192.168.18.167:2002/interview/seeker/web/chat/saveMsg" tooltip="http://192.168.18.167:201/interview/seeker/web/chat/saveMsg"/>
+    <hyperlink ref="D4" r:id="rId4" display="http://192.168.18.167:2002/interview/seeker/web/delivery/checkDelivery" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/checkDelivery"/>
+    <hyperlink ref="D5" r:id="rId5" display="http://192.168.18.167:2002/interview/seeker/web/delivery/resumeDelivery" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/resumeDelivery"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/apiFrame/data/delivertest.xlsx
+++ b/apiFrame/data/delivertest.xlsx
@@ -69,9 +69,6 @@
     <t>http://192.168.18.167:2002/interview/enterprise/web/chat/msgHistory</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>{"jobId":"{job_id}","userId":"{user_id}"}</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t>deliver_004</t>
@@ -613,169 +613,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1125,25 +1123,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="72.875" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="106.625" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="34.125" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="106.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1187,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" ht="30" customHeight="1" spans="1:12">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1197,67 +1195,64 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
       </c>
       <c r="L2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:12">
+    <row r="3" ht="26" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
       </c>
       <c r="L3">
         <v>200</v>
@@ -1265,37 +1260,34 @@
     </row>
     <row r="4" ht="46" customHeight="1" spans="1:12">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
       </c>
       <c r="L4">
         <v>200</v>
@@ -1311,26 +1303,29 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
         <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
       </c>
       <c r="L5">
         <v>200</v>
@@ -1346,38 +1341,44 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
         <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
       </c>
       <c r="L6">
         <v>200</v>
       </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://192.168.18.167:2002/interview/enterprise/web/chat/msgHistory" tooltip="http://192.168.18.167:2002/interview/enterprise/web/chat/msgHistory"/>
     <hyperlink ref="D3" r:id="rId2" display="http://192.168.18.167:2002/interview/seeker/web/delivery/userStartChat" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/userStartChat"/>
-    <hyperlink ref="D6" r:id="rId3" display="http://192.168.18.167:2002/interview/seeker/web/chat/saveMsg" tooltip="http://192.168.18.167:201/interview/seeker/web/chat/saveMsg"/>
-    <hyperlink ref="D4" r:id="rId4" display="http://192.168.18.167:2002/interview/seeker/web/delivery/checkDelivery" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/checkDelivery"/>
-    <hyperlink ref="D5" r:id="rId5" display="http://192.168.18.167:2002/interview/seeker/web/delivery/resumeDelivery" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/resumeDelivery"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://192.168.18.167:2002/interview/seeker/web/delivery/checkDelivery" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/checkDelivery"/>
+    <hyperlink ref="D5" r:id="rId4" display="http://192.168.18.167:2002/interview/seeker/web/delivery/resumeDelivery" tooltip="http://192.168.18.167:201/interview/seeker/web/delivery/resumeDelivery"/>
+    <hyperlink ref="D6" r:id="rId5" display="http://192.168.18.167:2002/interview/seeker/web/chat/saveMsg" tooltip="http://192.168.18.167:201/interview/seeker/web/chat/saveMsg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/apiFrame/data/delivertest.xlsx
+++ b/apiFrame/data/delivertest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>测试用例ID</t>
   </si>
@@ -81,61 +81,73 @@
     <t>success</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>{"Authorization":"{token}","Accept":"application/json, text/plain, */*","accept-encoding":"gzip, deflate, br","accept-language":"zh-CN,zh;q=0.9","Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>200|508</t>
+  </si>
+  <si>
+    <t>deliver_002</t>
+  </si>
+  <si>
+    <t>创建聊天房间</t>
+  </si>
+  <si>
+    <t>http://192.168.18.167:2002/interview/seeker/web/delivery/userStartChat</t>
+  </si>
+  <si>
+    <t>{"hrId":"{hr_id}","jobId":"{job_id}","companyId":"{company_id}","route":0,"routeId":"","tag":1}</t>
+  </si>
+  <si>
+    <t>success|已存在聊天，请勿重复发起</t>
+  </si>
+  <si>
+    <t>deliver_003</t>
+  </si>
+  <si>
+    <t>检查是否有未接收的投递</t>
+  </si>
+  <si>
+    <t>http://192.168.18.167:2002/interview/seeker/web/delivery/checkDelivery</t>
+  </si>
+  <si>
+    <t>{"jobId":"{job_id}","userId":"{user_id}"}</t>
+  </si>
+  <si>
+    <t>deliver_004</t>
+  </si>
+  <si>
+    <t>投递简历</t>
+  </si>
+  <si>
+    <t>http://192.168.18.167:2002/interview/seeker/web/delivery/resumeDelivery</t>
+  </si>
+  <si>
+    <t>{"id":"{zxjl_id}","jobId":"${job_id}","inviteId":"","companyId":"{company_id}","deliverType":0,"route":"0","routeId":""}</t>
+  </si>
+  <si>
+    <t>success|请等待HR接收！</t>
+  </si>
+  <si>
+    <t>deliver_005</t>
+  </si>
+  <si>
+    <t>发送聊天消息</t>
+  </si>
+  <si>
+    <t>http://192.168.18.167:2002/interview/seeker/web/chat/saveMsg</t>
+  </si>
+  <si>
+    <t>deliver_001|deliver_002|deliver_003|deliver_004</t>
+  </si>
+  <si>
+    <t>{"msgType":"deliverResume","jobId":"{job_id}","extension":"{msg_id}","roomId":"{room_id_new}","sendId":"{user}","receiveId":"{hr_id}","msgContent":"我对您的这个岗位很感兴趣，这是我的简历，请查收,脚本投递","sendTime":"{sendtime}"}</t>
+  </si>
+  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>{"Authorization":"{token}","Accept":"application/json, text/plain, */*","accept-encoding":"gzip, deflate, br","accept-language":"zh-CN,zh;q=0.9","Content-Type":"application/json"}</t>
-  </si>
-  <si>
-    <t>deliver_002</t>
-  </si>
-  <si>
-    <t>创建聊天房间</t>
-  </si>
-  <si>
-    <t>http://192.168.18.167:2002/interview/seeker/web/delivery/userStartChat</t>
-  </si>
-  <si>
-    <t>{"hrId":"{hr_id}","jobId":"{job_id}","companyId":"{company_id}","route":0,"routeId":"","tag":1}</t>
-  </si>
-  <si>
-    <t>deliver_003</t>
-  </si>
-  <si>
-    <t>检查是否有未接收的投递</t>
-  </si>
-  <si>
-    <t>http://192.168.18.167:2002/interview/seeker/web/delivery/checkDelivery</t>
-  </si>
-  <si>
-    <t>{"jobId":"{job_id}","userId":"{user_id}"}</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>deliver_004</t>
-  </si>
-  <si>
-    <t>投递简历</t>
-  </si>
-  <si>
-    <t>http://192.168.18.167:2002/interview/seeker/web/delivery/resumeDelivery</t>
-  </si>
-  <si>
-    <t>{"id":"{zxjl_id}","jobId":"${job_id}","inviteId":"","companyId":"{company_id}","deliverType":0,"route":"0","routeId":""}</t>
-  </si>
-  <si>
-    <t>deliver_005</t>
-  </si>
-  <si>
-    <t>发送聊天消息</t>
-  </si>
-  <si>
-    <t>http://192.168.18.167:2002/interview/seeker/web/chat/saveMsg</t>
-  </si>
-  <si>
-    <t>{"msgType":"deliverResume","jobId":"{job_id}","extension":"{msg_id}","roomId":"{room_id_new}","sendId":"{user}","receiveId":"{hr_id}","msgContent":"我对您的这个岗位很感兴趣，这是我的简历，请查收,脚本投递","sendTime":"{sendtime}"}</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1137,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1134,8 +1146,8 @@
     <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="106.625" style="1" customWidth="1"/>
@@ -1216,26 +1228,24 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="L2">
-        <v>200</v>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -1243,10 +1253,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
@@ -1254,22 +1264,22 @@
       <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="L3">
-        <v>200</v>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="46" customHeight="1" spans="1:12">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1278,37 +1288,35 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="L4">
-        <v>200</v>
+      <c r="L4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" ht="78" customHeight="1" spans="1:12">
+    <row r="5" ht="45" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="s">
         <v>17</v>
       </c>
@@ -1316,36 +1324,36 @@
         <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="L5">
-        <v>200</v>
+      <c r="L5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="63" customHeight="1" spans="1:12">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1354,19 +1362,19 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="L6">
-        <v>200</v>
+      <c r="L6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1">
